--- a/德福词汇/副词.xlsx
+++ b/德福词汇/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B13B5-7F7A-42D9-BCDB-FE29082D3ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF0025-7BA2-4D15-8F5D-6E5E5A2AC081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B904E63A-0070-4C5A-AF42-456FCA745115}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
   <si>
     <t>nun</t>
   </si>
@@ -547,6 +547,350 @@
   <si>
     <t>keinesfalls</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期以来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前不久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zudem</t>
+  </si>
+  <si>
+    <t>ferner</t>
+  </si>
+  <si>
+    <t>derzeit</t>
+  </si>
+  <si>
+    <t>überwiegend</t>
+  </si>
+  <si>
+    <t>damals</t>
+  </si>
+  <si>
+    <t>demnach</t>
+  </si>
+  <si>
+    <t>stattdessen</t>
+  </si>
+  <si>
+    <t>daraufhin</t>
+  </si>
+  <si>
+    <t>zuvor</t>
+  </si>
+  <si>
+    <t>außerdem</t>
+  </si>
+  <si>
+    <t>zumal</t>
+  </si>
+  <si>
+    <t>häufig</t>
+  </si>
+  <si>
+    <t>inzwischen</t>
+  </si>
+  <si>
+    <t>mittlerweile</t>
+  </si>
+  <si>
+    <t>dagegen</t>
+  </si>
+  <si>
+    <t>hingegen</t>
+  </si>
+  <si>
+    <t>teilweise</t>
+  </si>
+  <si>
+    <t>schrittweise</t>
+  </si>
+  <si>
+    <t>allmählich</t>
+  </si>
+  <si>
+    <t>langfristig</t>
+  </si>
+  <si>
+    <t>kurzfristig</t>
+  </si>
+  <si>
+    <t>mittelfristig</t>
+  </si>
+  <si>
+    <t>bereits</t>
+  </si>
+  <si>
+    <t>plötzlich</t>
+  </si>
+  <si>
+    <t>bislang</t>
+  </si>
+  <si>
+    <t>erstmals</t>
+  </si>
+  <si>
+    <t>seit Langem</t>
+  </si>
+  <si>
+    <t>längst</t>
+  </si>
+  <si>
+    <t>vor Kurzem</t>
+  </si>
+  <si>
+    <t>neulich</t>
+  </si>
+  <si>
+    <t>kürzlich</t>
+  </si>
+  <si>
+    <t>momentan</t>
+  </si>
+  <si>
+    <t>zurzeit</t>
+  </si>
+  <si>
+    <t>frühestens</t>
+  </si>
+  <si>
+    <t>spätestens</t>
+  </si>
+  <si>
+    <t>wenigstens</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>nahezu</t>
+  </si>
+  <si>
+    <t>maixmal</t>
+  </si>
+  <si>
+    <t>höchstens</t>
+  </si>
+  <si>
+    <t>mindestens</t>
+  </si>
+  <si>
+    <t>rasant</t>
+  </si>
+  <si>
+    <t>überall</t>
+  </si>
+  <si>
+    <t>bundesweit</t>
+  </si>
+  <si>
+    <t>landesweit</t>
+  </si>
+  <si>
+    <t>weiterhin</t>
+  </si>
+  <si>
+    <t>nirgendwo</t>
+  </si>
+  <si>
+    <t>gegebenenfalls</t>
+  </si>
+  <si>
+    <t>eher</t>
+  </si>
+  <si>
+    <t>stets</t>
+  </si>
+  <si>
+    <t>erneut</t>
+  </si>
+  <si>
+    <t>ständig</t>
+  </si>
+  <si>
+    <t>unaufhörlich</t>
+  </si>
+  <si>
+    <t>anfangs</t>
+  </si>
+  <si>
+    <t>jederzeit</t>
+  </si>
+  <si>
+    <t>kontinuierlich</t>
+  </si>
+  <si>
+    <t>oftmals</t>
+  </si>
+  <si>
+    <t>rasch</t>
+  </si>
+  <si>
+    <t>gewissermaßen</t>
+  </si>
+  <si>
+    <t>bzw(beziehungsweise)</t>
+  </si>
+  <si>
+    <t>此外</t>
+  </si>
+  <si>
+    <t>此外；另外</t>
+  </si>
+  <si>
+    <t>目前</t>
+  </si>
+  <si>
+    <t>占据主导地位；主要</t>
+  </si>
+  <si>
+    <t>当时；那时候</t>
+  </si>
+  <si>
+    <t>据此</t>
+  </si>
+  <si>
+    <t>作为替代</t>
+  </si>
+  <si>
+    <t>因此；接着</t>
+  </si>
+  <si>
+    <t>事先；之前</t>
+  </si>
+  <si>
+    <t>经常</t>
+  </si>
+  <si>
+    <t>在此期间</t>
+  </si>
+  <si>
+    <t>当时</t>
+  </si>
+  <si>
+    <t>相反</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>逐步</t>
+  </si>
+  <si>
+    <t>逐渐</t>
+  </si>
+  <si>
+    <t>长期</t>
+  </si>
+  <si>
+    <t>短期</t>
+  </si>
+  <si>
+    <t>中期</t>
+  </si>
+  <si>
+    <t>已经</t>
+  </si>
+  <si>
+    <t>突然</t>
+  </si>
+  <si>
+    <t>到目前为止</t>
+  </si>
+  <si>
+    <t>首次；第一次</t>
+  </si>
+  <si>
+    <t>早就</t>
+  </si>
+  <si>
+    <t>最近</t>
+  </si>
+  <si>
+    <t>目前；眼下</t>
+  </si>
+  <si>
+    <t>最早</t>
+  </si>
+  <si>
+    <t>最迟；最晚</t>
+  </si>
+  <si>
+    <t>最少；至少</t>
+  </si>
+  <si>
+    <t>最小；最少</t>
+  </si>
+  <si>
+    <t>最大；最多</t>
+  </si>
+  <si>
+    <t>最高；最多</t>
+  </si>
+  <si>
+    <t>至少；最少</t>
+  </si>
+  <si>
+    <t>快速的；飞速的</t>
+  </si>
+  <si>
+    <t>到处</t>
+  </si>
+  <si>
+    <t>全联邦,指德国全国</t>
+  </si>
+  <si>
+    <t>全州,指德国某个联邦州</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>无处</t>
+  </si>
+  <si>
+    <t>在必要时；在适当情况下</t>
+  </si>
+  <si>
+    <t>更情愿</t>
+  </si>
+  <si>
+    <t>始终；一直</t>
+  </si>
+  <si>
+    <t>再度；再次</t>
+  </si>
+  <si>
+    <t>持续</t>
+  </si>
+  <si>
+    <t>不停歇；不间断</t>
+  </si>
+  <si>
+    <t>起初；开始的时候</t>
+  </si>
+  <si>
+    <t>随时</t>
+  </si>
+  <si>
+    <t>持续；连续</t>
+  </si>
+  <si>
+    <t>经常性</t>
+  </si>
+  <si>
+    <t>快速的</t>
+  </si>
+  <si>
+    <t>一定程度上</t>
+  </si>
+  <si>
+    <t>或者；更确切地说</t>
   </si>
 </sst>
 </file>
@@ -597,12 +941,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -611,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,6 +981,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,18 +2128,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8EDCC1-E9D1-4D64-AEEA-7E15B7268DF1}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2305,7 +2671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -2316,7 +2682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -2327,250 +2693,676 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:4" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>0</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/副词.xlsx
+++ b/德福词汇/副词.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF0025-7BA2-4D15-8F5D-6E5E5A2AC081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73FFC1-9ED8-854F-BC96-3FA521524190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B904E63A-0070-4C5A-AF42-456FCA745115}"/>
+    <workbookView xWindow="-60" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{B904E63A-0070-4C5A-AF42-456FCA745115}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="267">
   <si>
     <t>nun</t>
   </si>
@@ -891,13 +891,21 @@
   </si>
   <si>
     <t>或者；更确切地说</t>
+  </si>
+  <si>
+    <t>maximal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +933,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -964,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +1007,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,21 +1326,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC44B061-B7B5-4FE0-8884-DF6F30209457}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1378,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1389,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1400,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1411,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1455,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1477,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1488,7 +1505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1499,7 +1516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1510,7 +1527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -1521,7 +1538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1532,7 +1549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1554,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -1565,7 +1582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -1576,7 +1593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1587,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1598,7 +1615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -1609,7 +1626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -1620,7 +1637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -1631,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -1653,7 +1670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -1664,7 +1681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -1675,7 +1692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -1686,7 +1703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -1697,7 +1714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -1708,7 +1725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -1741,7 +1758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -1763,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -1774,7 +1791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -1785,7 +1802,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -1796,7 +1813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -1807,7 +1824,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -1818,7 +1835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -1829,7 +1846,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -1851,7 +1868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -1862,7 +1879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -1873,250 +1890,676 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A51" s="6">
+        <v>0</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
       <c r="A54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
       <c r="A56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
       <c r="A58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
       <c r="A60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
       <c r="A62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
       <c r="A64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="2">
         <v>0</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="19">
+      <c r="A99" s="2">
+        <v>0</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="19">
+      <c r="A100" s="2">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="19">
+      <c r="A101" s="2">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="19">
+      <c r="A102" s="2">
+        <v>0</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="19">
+      <c r="A103" s="2">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="19">
+      <c r="A104" s="2">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="19">
+      <c r="A105" s="2">
+        <v>0</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="19">
+      <c r="A106" s="2">
+        <v>0</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="19">
+      <c r="A107" s="2">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="19">
+      <c r="A108" s="2">
+        <v>0</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="19">
+      <c r="A109" s="2">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="19">
+      <c r="A110" s="2">
+        <v>0</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="19">
+      <c r="A111" s="2">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2130,20 +2573,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8EDCC1-E9D1-4D64-AEEA-7E15B7268DF1}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2165,7 +2608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2176,7 +2619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2187,7 +2630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2198,7 +2641,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2209,7 +2652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2220,7 +2663,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2231,7 +2674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -2242,7 +2685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2253,7 +2696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2264,7 +2707,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2275,7 +2718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2286,7 +2729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -2297,7 +2740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -2308,7 +2751,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -2319,7 +2762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -2330,7 +2773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -2341,7 +2784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -2352,7 +2795,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -2363,7 +2806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -2374,7 +2817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -2385,7 +2828,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -2396,7 +2839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -2407,7 +2850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -2418,7 +2861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -2429,7 +2872,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -2440,7 +2883,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -2451,7 +2894,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -2462,7 +2905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -2473,7 +2916,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -2484,7 +2927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2495,7 +2938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -2506,7 +2949,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -2517,7 +2960,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -2528,7 +2971,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -2539,7 +2982,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -2550,7 +2993,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -2561,7 +3004,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -2572,7 +3015,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -2583,7 +3026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -2594,7 +3037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -2605,7 +3048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -2616,7 +3059,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -2627,7 +3070,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -2638,7 +3081,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -2649,7 +3092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -2660,7 +3103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -2671,7 +3114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -2682,7 +3125,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -2693,7 +3136,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="6">
         <v>0</v>
       </c>
@@ -2705,7 +3148,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -2716,7 +3159,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -2727,7 +3170,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="20" customHeight="1">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -2738,7 +3181,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -2749,7 +3192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="20" customHeight="1">
       <c r="A56" s="2">
         <v>0</v>
       </c>
@@ -2760,7 +3203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -2771,7 +3214,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="20" customHeight="1">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -2782,7 +3225,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -2793,7 +3236,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="20" customHeight="1">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -2804,7 +3247,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -2815,7 +3258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="20" customHeight="1">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -2826,7 +3269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -2837,7 +3280,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="20" customHeight="1">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -2848,7 +3291,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -2859,7 +3302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -2870,7 +3313,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -2881,7 +3324,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -2892,7 +3335,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -2903,7 +3346,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -2914,7 +3357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -2925,7 +3368,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -2936,7 +3379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -2947,7 +3390,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -2958,7 +3401,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -2969,7 +3412,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -2980,7 +3423,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -2991,7 +3434,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -3002,7 +3445,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -3013,7 +3456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -3024,7 +3467,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -3035,7 +3478,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -3046,7 +3489,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -3057,7 +3500,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -3068,7 +3511,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -3079,7 +3522,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -3090,7 +3533,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -3101,7 +3544,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -3112,7 +3555,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -3123,7 +3566,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -3134,7 +3577,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -3145,7 +3588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -3156,7 +3599,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -3167,7 +3610,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -3178,7 +3621,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -3189,7 +3632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -3200,7 +3643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -3211,7 +3654,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -3222,7 +3665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -3233,7 +3676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -3244,7 +3687,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -3255,7 +3698,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>0</v>
       </c>
@@ -3266,7 +3709,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -3277,7 +3720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>0</v>
       </c>
@@ -3288,7 +3731,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -3299,7 +3742,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -3310,7 +3753,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -3321,7 +3764,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -3332,7 +3775,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -3343,7 +3786,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -3354,7 +3797,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>0</v>
       </c>
